--- a/RailIndexPrj/4_17国家铁路省、市、自治区货运周转量.xlsx
+++ b/RailIndexPrj/4_17国家铁路省、市、自治区货运周转量.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目\6个人\railwayIdx-develop - 1201\RailIndexPrj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuzhi\Documents\R\work-directory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -261,6 +261,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,7 +481,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -763,16 +766,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -974,9 +977,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
-        <v>27029</v>
+        <v>1973</v>
       </c>
       <c r="B3" s="10">
         <v>4074.8</v>
@@ -1069,9 +1072,9 @@
         <v>20.190000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <v>27394</v>
+        <v>1974</v>
       </c>
       <c r="B4" s="10">
         <v>3805.77</v>
@@ -1164,9 +1167,9 @@
         <v>23.28</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
-        <v>27759</v>
+        <v>1975</v>
       </c>
       <c r="B5" s="10">
         <v>4246.1400000000003</v>
@@ -1259,9 +1262,9 @@
         <v>37.119999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
-        <v>28125</v>
+        <v>1976</v>
       </c>
       <c r="B6" s="12">
         <v>3860.72</v>
@@ -1354,9 +1357,9 @@
         <v>34.49</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
-        <v>28490</v>
+        <v>1977</v>
       </c>
       <c r="B7" s="10">
         <v>4557.33</v>
@@ -1449,9 +1452,9 @@
         <v>39.229999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <v>28855</v>
+        <v>1978</v>
       </c>
       <c r="B8" s="10">
         <v>5333.46</v>
@@ -1544,9 +1547,9 @@
         <v>51.33</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
-        <v>29220</v>
+        <v>1979</v>
       </c>
       <c r="B9" s="10">
         <v>5588.68</v>
@@ -1639,9 +1642,9 @@
         <v>71.97</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
-        <v>29586</v>
+        <v>1980</v>
       </c>
       <c r="B10" s="14">
         <v>5707.32</v>
@@ -1734,9 +1737,9 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
-        <v>29951</v>
+        <v>1981</v>
       </c>
       <c r="B11" s="12">
         <v>5701.34</v>
@@ -1829,9 +1832,9 @@
         <v>49.09</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
-        <v>30316</v>
+        <v>1982</v>
       </c>
       <c r="B12" s="10">
         <v>6109.02</v>
@@ -1924,9 +1927,9 @@
         <v>58.72</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
-        <v>30681</v>
+        <v>1983</v>
       </c>
       <c r="B13" s="10">
         <v>6634.45</v>
@@ -2019,9 +2022,9 @@
         <v>64.66</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
-        <v>31047</v>
+        <v>1984</v>
       </c>
       <c r="B14" s="10">
         <v>7234.76</v>
@@ -2114,9 +2117,9 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
-        <v>31412</v>
+        <v>1985</v>
       </c>
       <c r="B15" s="14">
         <v>8111.6</v>
@@ -2209,9 +2212,9 @@
         <v>77.37</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
-        <v>31777</v>
+        <v>1986</v>
       </c>
       <c r="B16" s="12">
         <v>8750.09</v>
@@ -2304,9 +2307,9 @@
         <v>82.88</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
-        <v>32142</v>
+        <v>1987</v>
       </c>
       <c r="B17" s="10">
         <v>9455.65</v>
@@ -2399,9 +2402,9 @@
         <v>89.03</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
-        <v>32508</v>
+        <v>1988</v>
       </c>
       <c r="B18" s="10">
         <v>9860.19</v>
@@ -2494,9 +2497,9 @@
         <v>97.35</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
-        <v>32873</v>
+        <v>1989</v>
       </c>
       <c r="B19" s="10">
         <v>10372.950000000001</v>
@@ -2591,9 +2594,9 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
-        <v>33238</v>
+        <v>1990</v>
       </c>
       <c r="B20" s="14">
         <v>10601.2</v>
@@ -2688,9 +2691,9 @@
         <v>108.71</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
-        <v>33603</v>
+        <v>1991</v>
       </c>
       <c r="B21" s="12">
         <v>10948.07</v>
@@ -2785,9 +2788,9 @@
         <v>126.41</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
-        <v>33969</v>
+        <v>1992</v>
       </c>
       <c r="B22" s="10">
         <v>11548.51</v>
@@ -2882,9 +2885,9 @@
         <v>134.47999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
-        <v>34334</v>
+        <v>1993</v>
       </c>
       <c r="B23" s="10">
         <v>11923.42</v>
@@ -2979,9 +2982,9 @@
         <v>143.34</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
-        <v>34699</v>
+        <v>1994</v>
       </c>
       <c r="B24" s="10">
         <v>12426.02</v>
@@ -3076,9 +3079,9 @@
         <v>156.26</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
-        <v>35064</v>
+        <v>1995</v>
       </c>
       <c r="B25" s="14">
         <v>12836.01</v>
@@ -3173,9 +3176,9 @@
         <v>179.02</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
-        <v>35430</v>
+        <v>1996</v>
       </c>
       <c r="B26" s="12">
         <v>12921.85</v>
@@ -3270,9 +3273,9 @@
         <v>190.66</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
-        <v>35795</v>
+        <v>1997</v>
       </c>
       <c r="B27" s="10">
         <v>13046.41</v>
@@ -3369,9 +3372,9 @@
         <v>196.17</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
-        <v>36160</v>
+        <v>1998</v>
       </c>
       <c r="B28" s="10">
         <v>12261.52</v>
@@ -3468,9 +3471,9 @@
         <v>189.76</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
-        <v>36525</v>
+        <v>1999</v>
       </c>
       <c r="B29" s="10">
         <v>12577.89</v>
@@ -3567,9 +3570,9 @@
         <v>215.71</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
-        <v>36891</v>
+        <v>2000</v>
       </c>
       <c r="B30" s="14">
         <v>13336.06</v>
@@ -3666,9 +3669,9 @@
         <v>254.74</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
-        <v>37256</v>
+        <v>2001</v>
       </c>
       <c r="B31" s="12">
         <v>14249.8</v>
@@ -3765,9 +3768,9 @@
         <v>306.67</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
-        <v>37621</v>
+        <v>2002</v>
       </c>
       <c r="B32" s="10">
         <v>15078.17</v>
@@ -3864,9 +3867,9 @@
         <v>340.61</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
-        <v>37986</v>
+        <v>2003</v>
       </c>
       <c r="B33" s="10">
         <v>16323.41</v>
@@ -3963,9 +3966,9 @@
         <v>382.68</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
-        <v>38352</v>
+        <v>2004</v>
       </c>
       <c r="B34" s="10">
         <v>18109.939999999999</v>
@@ -4062,9 +4065,9 @@
         <v>446.31</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
-        <v>38717</v>
+        <v>2005</v>
       </c>
       <c r="B35" s="14">
         <v>19346.12</v>
@@ -4159,9 +4162,9 @@
         <v>494.18</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
-        <v>39082</v>
+        <v>2006</v>
       </c>
       <c r="B36" s="12">
         <v>20321.62</v>
@@ -4258,9 +4261,9 @@
         <v>561.29999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
-        <v>39447</v>
+        <v>2007</v>
       </c>
       <c r="B37" s="10">
         <v>21856.13</v>
@@ -4357,9 +4360,9 @@
         <v>589.83000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
-        <v>39813</v>
+        <v>2008</v>
       </c>
       <c r="B38" s="10">
         <f>SUM(C38:AG38)</f>
@@ -4459,9 +4462,9 @@
         <v>661.1</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
-        <v>40178</v>
+        <v>2009</v>
       </c>
       <c r="B39" s="10">
         <v>23354.5</v>
@@ -4560,9 +4563,9 @@
         <v>655.03</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
-        <v>40543</v>
+        <v>2010</v>
       </c>
       <c r="B40" s="14">
         <v>25626.19</v>
@@ -4661,9 +4664,9 @@
         <v>705.85</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
-        <v>40908</v>
+        <v>2011</v>
       </c>
       <c r="B41" s="12">
         <v>27296.49</v>
@@ -4762,9 +4765,9 @@
         <v>742.35</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
-        <v>41274</v>
+        <v>2012</v>
       </c>
       <c r="B42" s="10">
         <v>26925.53</v>
@@ -4863,9 +4866,9 @@
         <v>790.68</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
-        <v>41639</v>
+        <v>2013</v>
       </c>
       <c r="B43" s="10">
         <v>26702.85</v>
@@ -4964,9 +4967,9 @@
         <v>868.24</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
-        <v>42004</v>
+        <v>2014</v>
       </c>
       <c r="B44" s="10">
         <v>25076.21</v>

--- a/RailIndexPrj/4_17国家铁路省、市、自治区货运周转量.xlsx
+++ b/RailIndexPrj/4_17国家铁路省、市、自治区货运周转量.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuzhi\Documents\R\work-directory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目\6个人\railwayIdx-develop - 1201\RailIndexPrj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -261,9 +261,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,7 +478,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -766,16 +763,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -977,9 +974,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
-        <v>1973</v>
+        <v>27029</v>
       </c>
       <c r="B3" s="10">
         <v>4074.8</v>
@@ -1072,9 +1069,9 @@
         <v>20.190000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
-        <v>1974</v>
+        <v>27394</v>
       </c>
       <c r="B4" s="10">
         <v>3805.77</v>
@@ -1167,9 +1164,9 @@
         <v>23.28</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
-        <v>1975</v>
+        <v>27759</v>
       </c>
       <c r="B5" s="10">
         <v>4246.1400000000003</v>
@@ -1262,9 +1259,9 @@
         <v>37.119999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
-        <v>1976</v>
+        <v>28125</v>
       </c>
       <c r="B6" s="12">
         <v>3860.72</v>
@@ -1357,9 +1354,9 @@
         <v>34.49</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
-        <v>1977</v>
+        <v>28490</v>
       </c>
       <c r="B7" s="10">
         <v>4557.33</v>
@@ -1452,9 +1449,9 @@
         <v>39.229999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
-        <v>1978</v>
+        <v>28855</v>
       </c>
       <c r="B8" s="10">
         <v>5333.46</v>
@@ -1547,9 +1544,9 @@
         <v>51.33</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
-        <v>1979</v>
+        <v>29220</v>
       </c>
       <c r="B9" s="10">
         <v>5588.68</v>
@@ -1642,9 +1639,9 @@
         <v>71.97</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" s="16">
-        <v>1980</v>
+        <v>29586</v>
       </c>
       <c r="B10" s="14">
         <v>5707.32</v>
@@ -1737,9 +1734,9 @@
         <v>50.18</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="16">
-        <v>1981</v>
+        <v>29951</v>
       </c>
       <c r="B11" s="12">
         <v>5701.34</v>
@@ -1832,9 +1829,9 @@
         <v>49.09</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
-        <v>1982</v>
+        <v>30316</v>
       </c>
       <c r="B12" s="10">
         <v>6109.02</v>
@@ -1927,9 +1924,9 @@
         <v>58.72</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="16">
-        <v>1983</v>
+        <v>30681</v>
       </c>
       <c r="B13" s="10">
         <v>6634.45</v>
@@ -2022,9 +2019,9 @@
         <v>64.66</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="16">
-        <v>1984</v>
+        <v>31047</v>
       </c>
       <c r="B14" s="10">
         <v>7234.76</v>
@@ -2117,9 +2114,9 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
-        <v>1985</v>
+        <v>31412</v>
       </c>
       <c r="B15" s="14">
         <v>8111.6</v>
@@ -2212,9 +2209,9 @@
         <v>77.37</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="16">
-        <v>1986</v>
+        <v>31777</v>
       </c>
       <c r="B16" s="12">
         <v>8750.09</v>
@@ -2307,9 +2304,9 @@
         <v>82.88</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="16">
-        <v>1987</v>
+        <v>32142</v>
       </c>
       <c r="B17" s="10">
         <v>9455.65</v>
@@ -2402,9 +2399,9 @@
         <v>89.03</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
-        <v>1988</v>
+        <v>32508</v>
       </c>
       <c r="B18" s="10">
         <v>9860.19</v>
@@ -2497,9 +2494,9 @@
         <v>97.35</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="16">
-        <v>1989</v>
+        <v>32873</v>
       </c>
       <c r="B19" s="10">
         <v>10372.950000000001</v>
@@ -2594,9 +2591,9 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="16">
-        <v>1990</v>
+        <v>33238</v>
       </c>
       <c r="B20" s="14">
         <v>10601.2</v>
@@ -2691,9 +2688,9 @@
         <v>108.71</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
-        <v>1991</v>
+        <v>33603</v>
       </c>
       <c r="B21" s="12">
         <v>10948.07</v>
@@ -2788,9 +2785,9 @@
         <v>126.41</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="16">
-        <v>1992</v>
+        <v>33969</v>
       </c>
       <c r="B22" s="10">
         <v>11548.51</v>
@@ -2885,9 +2882,9 @@
         <v>134.47999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="16">
-        <v>1993</v>
+        <v>34334</v>
       </c>
       <c r="B23" s="10">
         <v>11923.42</v>
@@ -2982,9 +2979,9 @@
         <v>143.34</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="16">
-        <v>1994</v>
+        <v>34699</v>
       </c>
       <c r="B24" s="10">
         <v>12426.02</v>
@@ -3079,9 +3076,9 @@
         <v>156.26</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="16">
-        <v>1995</v>
+        <v>35064</v>
       </c>
       <c r="B25" s="14">
         <v>12836.01</v>
@@ -3176,9 +3173,9 @@
         <v>179.02</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="16">
-        <v>1996</v>
+        <v>35430</v>
       </c>
       <c r="B26" s="12">
         <v>12921.85</v>
@@ -3273,9 +3270,9 @@
         <v>190.66</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
-        <v>1997</v>
+        <v>35795</v>
       </c>
       <c r="B27" s="10">
         <v>13046.41</v>
@@ -3372,9 +3369,9 @@
         <v>196.17</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" s="16">
-        <v>1998</v>
+        <v>36160</v>
       </c>
       <c r="B28" s="10">
         <v>12261.52</v>
@@ -3471,9 +3468,9 @@
         <v>189.76</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A29" s="16">
-        <v>1999</v>
+        <v>36525</v>
       </c>
       <c r="B29" s="10">
         <v>12577.89</v>
@@ -3570,9 +3567,9 @@
         <v>215.71</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
-        <v>2000</v>
+        <v>36891</v>
       </c>
       <c r="B30" s="14">
         <v>13336.06</v>
@@ -3669,9 +3666,9 @@
         <v>254.74</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A31" s="16">
-        <v>2001</v>
+        <v>37256</v>
       </c>
       <c r="B31" s="12">
         <v>14249.8</v>
@@ -3768,9 +3765,9 @@
         <v>306.67</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A32" s="16">
-        <v>2002</v>
+        <v>37621</v>
       </c>
       <c r="B32" s="10">
         <v>15078.17</v>
@@ -3867,9 +3864,9 @@
         <v>340.61</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A33" s="16">
-        <v>2003</v>
+        <v>37986</v>
       </c>
       <c r="B33" s="10">
         <v>16323.41</v>
@@ -3966,9 +3963,9 @@
         <v>382.68</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A34" s="16">
-        <v>2004</v>
+        <v>38352</v>
       </c>
       <c r="B34" s="10">
         <v>18109.939999999999</v>
@@ -4065,9 +4062,9 @@
         <v>446.31</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A35" s="16">
-        <v>2005</v>
+        <v>38717</v>
       </c>
       <c r="B35" s="14">
         <v>19346.12</v>
@@ -4162,9 +4159,9 @@
         <v>494.18</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A36" s="16">
-        <v>2006</v>
+        <v>39082</v>
       </c>
       <c r="B36" s="12">
         <v>20321.62</v>
@@ -4261,9 +4258,9 @@
         <v>561.29999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A37" s="16">
-        <v>2007</v>
+        <v>39447</v>
       </c>
       <c r="B37" s="10">
         <v>21856.13</v>
@@ -4360,9 +4357,9 @@
         <v>589.83000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A38" s="16">
-        <v>2008</v>
+        <v>39813</v>
       </c>
       <c r="B38" s="10">
         <f>SUM(C38:AG38)</f>
@@ -4462,9 +4459,9 @@
         <v>661.1</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
-        <v>2009</v>
+        <v>40178</v>
       </c>
       <c r="B39" s="10">
         <v>23354.5</v>
@@ -4563,9 +4560,9 @@
         <v>655.03</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A40" s="16">
-        <v>2010</v>
+        <v>40543</v>
       </c>
       <c r="B40" s="14">
         <v>25626.19</v>
@@ -4664,9 +4661,9 @@
         <v>705.85</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A41" s="16">
-        <v>2011</v>
+        <v>40908</v>
       </c>
       <c r="B41" s="12">
         <v>27296.49</v>
@@ -4765,9 +4762,9 @@
         <v>742.35</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A42" s="16">
-        <v>2012</v>
+        <v>41274</v>
       </c>
       <c r="B42" s="10">
         <v>26925.53</v>
@@ -4866,9 +4863,9 @@
         <v>790.68</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A43" s="16">
-        <v>2013</v>
+        <v>41639</v>
       </c>
       <c r="B43" s="10">
         <v>26702.85</v>
@@ -4967,9 +4964,9 @@
         <v>868.24</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A44" s="16">
-        <v>2014</v>
+        <v>42004</v>
       </c>
       <c r="B44" s="10">
         <v>25076.21</v>
